--- a/pred_ohlcv/54_21/2020-01-16 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 RDN ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>31720.2516204578</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>32804.2516204578</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -652,7 +652,7 @@
         <v>36303.05183895666</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>36730.05183895666</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>36925.80433895666</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>37325.80433895666</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>37116.88403895666</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>34266.88403895666</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>38347.90763895666</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>29057.69423895666</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>67786.21763895666</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>67786.21763895666</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>67986.21763895666</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>67986.21763895666</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>68186.21763895666</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>68186.21763895666</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>72132.21763895666</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>72196.08563895666</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>72571.21703895666</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>72633.21703895666</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>72833.21703895666</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>72833.21703895666</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>89140.93653895665</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>86148.59473895666</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>63110.19713895666</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>58152.14633895666</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>80243.30493895669</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>80798.47143895669</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>81180.5860389567</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>81180.5860389567</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>80680.5860389567</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 RDN ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>31720.2516204578</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -678,7 +678,7 @@
         <v>36730.05183895666</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>36925.80433895666</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>37325.80433895666</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>37116.88403895666</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>34266.88403895666</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>38347.90763895666</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>29057.69423895666</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>67786.21763895666</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>67786.21763895666</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>67986.21763895666</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>67986.21763895666</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>68186.21763895666</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>68186.21763895666</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>72196.08563895666</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>72571.21703895666</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>72633.21703895666</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>72833.21703895666</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>72833.21703895666</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>89140.93653895665</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>86148.59473895666</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>63110.19713895666</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>58152.14633895666</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>77849.22053895667</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>74135.22053895667</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>74135.22053895667</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>80243.30493895669</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>80798.47143895669</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>81180.5860389567</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>81180.5860389567</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>80680.5860389567</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
